--- a/data/income_statement/3digits/total/232_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/232_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>232-Manufacture of refractory products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>232-Manufacture of refractory products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>470101.41312</v>
@@ -956,7 +862,7 @@
         <v>532607.66853</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>760819.40111</v>
+        <v>760819.4011099999</v>
       </c>
       <c r="F5" s="47" t="n">
         <v>738192.6894</v>
@@ -965,10 +871,10 @@
         <v>687320.56603</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>774130.5031</v>
+        <v>774130.5031000001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>705933.84522</v>
+        <v>769965.6352</v>
       </c>
       <c r="J5" s="47" t="n">
         <v>817347.83348</v>
@@ -977,16 +883,21 @@
         <v>1306012.8449</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1962724.0717</v>
+        <v>1967050.76851</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>2130002.18851</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2130838.11398</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>3831138.835</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>330724.42419</v>
@@ -995,7 +906,7 @@
         <v>386566.87366</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>557754.76608</v>
+        <v>557754.7660800001</v>
       </c>
       <c r="F6" s="48" t="n">
         <v>573646.7973099999</v>
@@ -1007,7 +918,7 @@
         <v>607079.1105399999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>559913.94787</v>
+        <v>619304.79571</v>
       </c>
       <c r="J6" s="48" t="n">
         <v>661789.3447200001</v>
@@ -1016,16 +927,21 @@
         <v>1094814.60741</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1574343.68234</v>
+        <v>1578660.44909</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1669580.36714</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1670373.91972</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>2930802.915</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>137415.5955</v>
@@ -1046,7 +962,7 @@
         <v>164925.35157</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>142875.48489</v>
+        <v>147516.42703</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>150751.59214</v>
@@ -1055,16 +971,21 @@
         <v>203763.40217</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>380070.4084600001</v>
+        <v>380070.40846</v>
       </c>
       <c r="M7" s="48" t="n">
         <v>449726.7816699999</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>881828.811</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>1961.39343</v>
@@ -1088,22 +1009,27 @@
         <v>3144.41246</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>4806.896620000001</v>
+        <v>4806.89662</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>7434.83532</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>8309.9809</v>
+        <v>8319.910959999999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>10695.0397</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>10737.41259</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>18507.109</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>8591.04579</v>
@@ -1124,7 +1050,7 @@
         <v>18868.88724</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>15407.689</v>
+        <v>16279.30982</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>21813.57087</v>
@@ -1133,16 +1059,21 @@
         <v>21377.51086</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>38869.52963</v>
+        <v>38890.72336</v>
       </c>
       <c r="M9" s="47" t="n">
         <v>39849.36312</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>60567.79</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>3156.71451</v>
@@ -1163,25 +1094,30 @@
         <v>7301.523740000001</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>3871.90284</v>
+        <v>4743.523659999999</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>10968.15775</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>7175.4508</v>
+        <v>7175.450800000001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>14730.54788</v>
+        <v>14751.74161</v>
       </c>
       <c r="M10" s="48" t="n">
         <v>14638.70901</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>17407.881</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>3080.94766</v>
@@ -1211,16 +1147,21 @@
         <v>1807.67481</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>2518.96122</v>
+        <v>2518.961220000001</v>
       </c>
       <c r="M11" s="48" t="n">
         <v>1739.43962</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>10579.286</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>2353.38362</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>23471.21449</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>32580.623</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>461510.36733</v>
@@ -1274,34 +1220,39 @@
         <v>727481.3477899999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>672736.56337</v>
+        <v>672736.5633699999</v>
       </c>
       <c r="H13" s="47" t="n">
         <v>755261.61586</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>690526.15622</v>
+        <v>753686.3253800001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>795534.26261</v>
+        <v>795534.2626099999</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>1284635.33404</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1923854.54207</v>
+        <v>1928160.04515</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>2090152.82539</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2090988.75086</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>3770571.045</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>348240.10317</v>
+        <v>348240.1031700001</v>
       </c>
       <c r="D14" s="47" t="n">
         <v>422336.91434</v>
@@ -1310,7 +1261,7 @@
         <v>561064.8994</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>580097.78979</v>
+        <v>580097.7897900001</v>
       </c>
       <c r="G14" s="47" t="n">
         <v>515168.40116</v>
@@ -1319,7 +1270,7 @@
         <v>573767.74976</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>538654.22221</v>
+        <v>584611.5827900001</v>
       </c>
       <c r="J14" s="47" t="n">
         <v>612173.84185</v>
@@ -1328,22 +1279,27 @@
         <v>985582.6874399998</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1422834.40959</v>
+        <v>1426344.08725</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1571987.43422</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1572950.07104</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>2757717.708</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>318406.36295</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>384896.4861799999</v>
+        <v>384896.48618</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>485139.46993</v>
@@ -1358,7 +1314,7 @@
         <v>481653.88054</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>438188.53999</v>
+        <v>482696.57509</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>481827.77772</v>
@@ -1367,16 +1323,21 @@
         <v>680593.6290900001</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1127773.24759</v>
+        <v>1129989.40714</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1238190.21469</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1238579.70111</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>2151618.226</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>28374.64103</v>
@@ -1397,7 +1358,7 @@
         <v>79948.28446000001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>90605.86415000001</v>
+        <v>91358.67187999999</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>114837.776</v>
@@ -1406,16 +1367,21 @@
         <v>264439.1562</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>278434.0247</v>
+        <v>279605.71481</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>314656.36144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>315144.46344</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>568512.966</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1146.33465</v>
@@ -1436,7 +1402,7 @@
         <v>10620.54834</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>8482.560870000001</v>
+        <v>8563.119570000001</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>14824.6223</v>
@@ -1445,16 +1411,21 @@
         <v>37509.07664</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>14806.2012</v>
+        <v>14928.0292</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>17327.06512</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>17369.74063</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>33239.995</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>312.76454</v>
@@ -1475,7 +1446,7 @@
         <v>1545.03642</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>1377.2572</v>
+        <v>1993.21625</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>683.66583</v>
@@ -1487,13 +1458,18 @@
         <v>1820.9361</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>1813.79297</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1856.16586</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>4346.521</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>113270.26416</v>
@@ -1514,7 +1490,7 @@
         <v>181493.8661</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>151871.93401</v>
+        <v>169074.74259</v>
       </c>
       <c r="J19" s="47" t="n">
         <v>183360.42076</v>
@@ -1523,19 +1499,24 @@
         <v>299052.6466</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>501020.13248</v>
+        <v>501815.9579</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>518165.39117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>518038.67982</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1012853.337</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>57000.84638999999</v>
+        <v>57000.84639</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>61715.21356</v>
@@ -1547,13 +1528,13 @@
         <v>90411.19144999998</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>85015.67126</v>
+        <v>85015.67125999999</v>
       </c>
       <c r="H20" s="47" t="n">
         <v>98608.45973</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>97504.15437999999</v>
+        <v>108249.6821</v>
       </c>
       <c r="J20" s="47" t="n">
         <v>106606.91946</v>
@@ -1562,16 +1543,21 @@
         <v>140073.61114</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>183461.17098</v>
+        <v>184559.31207</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>216982.27694</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>217442.75253</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>372104.354</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1622.44494</v>
@@ -1592,7 +1578,7 @@
         <v>2119.95883</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>1946.08424</v>
+        <v>2179.21263</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>1846.30696</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>3655.59408</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>4601.072</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>24684.16716</v>
@@ -1622,7 +1613,7 @@
         <v>42061.9692</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>46779.63963000001</v>
+        <v>46779.63963</v>
       </c>
       <c r="G22" s="48" t="n">
         <v>42648.00566</v>
@@ -1631,7 +1622,7 @@
         <v>47042.65179</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>43662.27779</v>
+        <v>46860.01331</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>46980.65440000001</v>
@@ -1640,16 +1631,21 @@
         <v>64522.26824</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>87139.91832</v>
+        <v>87388.08828</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>103269.93936</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>103486.02548</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>171463.786</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>30694.23429</v>
@@ -1658,7 +1654,7 @@
         <v>30658.5613</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>41089.13129999999</v>
+        <v>41089.1313</v>
       </c>
       <c r="F23" s="48" t="n">
         <v>41943.98656</v>
@@ -1670,7 +1666,7 @@
         <v>49445.84911</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>51895.79235</v>
+        <v>59210.45615999999</v>
       </c>
       <c r="J23" s="48" t="n">
         <v>57779.9581</v>
@@ -1679,16 +1675,21 @@
         <v>73494.60884</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>92830.20172</v>
+        <v>93680.17284999999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>110056.7435</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>110301.13297</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>196039.496</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>56269.41776999999</v>
@@ -1709,7 +1710,7 @@
         <v>82885.40637000001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>54367.77963</v>
+        <v>60825.06049</v>
       </c>
       <c r="J24" s="47" t="n">
         <v>76753.50130000002</v>
@@ -1718,16 +1719,21 @@
         <v>158979.03546</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>317558.9615</v>
+        <v>317256.64583</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>301183.11423</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>300595.92729</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>640748.983</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>22934.9641</v>
@@ -1742,13 +1748,13 @@
         <v>35422.90186</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>28985.66123000001</v>
+        <v>28985.66123</v>
       </c>
       <c r="H25" s="47" t="n">
         <v>30527.49091</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>53122.55845</v>
+        <v>56678.92469000001</v>
       </c>
       <c r="J25" s="47" t="n">
         <v>51207.19802</v>
@@ -1757,16 +1763,21 @@
         <v>62426.82362999999</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>253752.22288</v>
+        <v>253754.76168</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>180865.4433</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>181016.63793</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>539828.349</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1787,7 +1798,7 @@
         <v>100.20491</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>0</v>
+        <v>128.20196</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>7914.75479</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,14 +1856,19 @@
       <c r="M27" s="48" t="n">
         <v>26074.2305</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>41911.215</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>728.54444</v>
+        <v>728.5444399999999</v>
       </c>
       <c r="D28" s="48" t="n">
         <v>1404.24774</v>
@@ -1856,7 +1877,7 @@
         <v>2119.4724</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>5425.494700000001</v>
+        <v>5425.4947</v>
       </c>
       <c r="G28" s="48" t="n">
         <v>2561.30666</v>
@@ -1865,7 +1886,7 @@
         <v>2431.52097</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1784.63533</v>
+        <v>3047.8506</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>2657.38416</v>
@@ -1877,13 +1898,18 @@
         <v>13152.59382</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>14995.93219</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>14995.96781</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>30535.21</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>12.28814</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>2500.183</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>23.44662</v>
@@ -1943,7 +1974,7 @@
         <v>491.61753</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>32.45963</v>
+        <v>340.79046</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>275.44242</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>304.93108</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>181.668</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>32.97347</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>269.26226</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>502.796</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>17997.84426</v>
@@ -2021,7 +2062,7 @@
         <v>24484.13145</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>32705.60079</v>
+        <v>33742.23411999999</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>38188.90355</v>
@@ -2033,13 +2074,18 @@
         <v>224903.83931</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>132313.14449</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>132464.30351</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>450678.456</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>50.25739</v>
@@ -2054,7 +2100,7 @@
         <v>247.54206</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>92.73574000000001</v>
+        <v>92.73573999999999</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>42.50354</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>698.24075</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>580.433</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>4101.89792</v>
@@ -2135,10 +2191,10 @@
         <v>2381.03372</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>2818.675400000001</v>
+        <v>2818.6754</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>7720.32753</v>
+        <v>8540.312379999999</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>1893.45226</v>
@@ -2147,16 +2203,21 @@
         <v>-3253.37057</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>2624.77051</v>
+        <v>2627.30931</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>6197.41389</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>6197.413879999999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>12938.388</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>15712.76764</v>
@@ -2177,13 +2238,13 @@
         <v>26623.03523</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>36254.96859</v>
+        <v>37723.9874</v>
       </c>
       <c r="J36" s="47" t="n">
         <v>31915.07212</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>44385.57845</v>
+        <v>44385.57844999999</v>
       </c>
       <c r="L36" s="47" t="n">
         <v>186104.80615</v>
@@ -2191,11 +2252,16 @@
       <c r="M36" s="47" t="n">
         <v>103297.71366</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" s="47" t="n">
+        <v>385278.369</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>97.23016</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>283.72334</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>2192.783</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>1060.35266</v>
@@ -2255,7 +2326,7 @@
         <v>852.5187200000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>1734.31514</v>
+        <v>2227.85702</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>1211.57856</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>3726.367</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>5401.157</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0.055</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>14268.04839</v>
@@ -2333,7 +2414,7 @@
         <v>25192.57433</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>33685.52482</v>
+        <v>34661.00175</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>28462.54868</v>
@@ -2347,11 +2428,16 @@
       <c r="M40" s="48" t="n">
         <v>95394.96931</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="48" t="n">
+        <v>375176.13</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>48.07199</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>978.88567</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1402.833</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0.576</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>239.06444</v>
@@ -2464,11 +2560,16 @@
       <c r="M43" s="48" t="n">
         <v>2913.76834</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>1104.835</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>15237.02533</v>
@@ -2489,7 +2590,7 @@
         <v>8698.93657</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>9370.670400000001</v>
+        <v>9449.241489999999</v>
       </c>
       <c r="J44" s="47" t="n">
         <v>11594.59877</v>
@@ -2498,16 +2599,21 @@
         <v>16163.24872</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>31037.26067</v>
+        <v>31039.34705</v>
       </c>
       <c r="M44" s="47" t="n">
         <v>29955.10941</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" s="47" t="n">
+        <v>80512.56299999999</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>11739.54054</v>
@@ -2528,7 +2634,7 @@
         <v>8415.109199999999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>8432.47825</v>
+        <v>8511.04934</v>
       </c>
       <c r="J45" s="48" t="n">
         <v>10598.90944</v>
@@ -2537,16 +2643,21 @@
         <v>14490.65932</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>26984.96383</v>
+        <v>26987.05021</v>
       </c>
       <c r="M45" s="48" t="n">
         <v>26570.86133</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" s="48" t="n">
+        <v>78136.575</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>3497.48479</v>
@@ -2570,7 +2681,7 @@
         <v>938.19215</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>995.68933</v>
+        <v>995.6893299999999</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>1672.5894</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>3384.24808</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>2375.988</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>48254.5889</v>
@@ -2594,10 +2710,10 @@
         <v>33745.63022</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>76827.40412000001</v>
+        <v>76827.40411999999</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>66605.23969000002</v>
+        <v>66605.23969</v>
       </c>
       <c r="G47" s="47" t="n">
         <v>65451.29689</v>
@@ -2606,7 +2722,7 @@
         <v>78090.92548000001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>61864.69909</v>
+        <v>70330.75629</v>
       </c>
       <c r="J47" s="47" t="n">
         <v>84451.02843000001</v>
@@ -2615,16 +2731,21 @@
         <v>160857.03192</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>354169.11756</v>
+        <v>353867.25431</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>348795.7344600001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>348359.7421499999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>714786.4</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>1231.94021</v>
@@ -2645,7 +2766,7 @@
         <v>2861.81633</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>7954.34975</v>
+        <v>8030.54856</v>
       </c>
       <c r="J48" s="47" t="n">
         <v>3662.81243</v>
@@ -2654,16 +2775,21 @@
         <v>17230.63555</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>6374.06183</v>
+        <v>6387.394730000001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>9967.82116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>10092.67462</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>52897.543</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>70.90629999999999</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>481.31778</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>762.242</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>1161.03391</v>
@@ -2723,7 +2854,7 @@
         <v>2798.86371</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>7792.56524</v>
+        <v>7868.76405</v>
       </c>
       <c r="J50" s="48" t="n">
         <v>3661.31743</v>
@@ -2732,16 +2863,21 @@
         <v>17209.92744</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>6327.846759999999</v>
+        <v>6341.17966</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>9486.50338</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>9611.35684</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>52135.301</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>1748.41219</v>
@@ -2762,7 +2898,7 @@
         <v>5070.21842</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>3252.02037</v>
+        <v>3252.84917</v>
       </c>
       <c r="J51" s="47" t="n">
         <v>7088.311580000001</v>
@@ -2771,16 +2907,21 @@
         <v>18967.47547</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>11495.01936</v>
+        <v>11555.75619</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>6575.46342</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>6602.51274</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>30111.609</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>323.85365</v>
@@ -2801,7 +2942,7 @@
         <v>31.84072</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>796.3432299999999</v>
+        <v>796.3432299999998</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>1878.61901</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>2825.61755</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>23036.813</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>203.84422</v>
@@ -2843,7 +2989,7 @@
         <v>549.48857</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>2306.379170000001</v>
+        <v>2306.37917</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>743.05835</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>28.87481</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>987.539</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>1220.71432</v>
@@ -2879,7 +3030,7 @@
         <v>4217.71028</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>1906.18857</v>
+        <v>1907.01737</v>
       </c>
       <c r="J54" s="48" t="n">
         <v>2903.3134</v>
@@ -2888,16 +3039,21 @@
         <v>16588.26459</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>10192.46291</v>
+        <v>10253.19974</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>3720.971059999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>3748.02038</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>6087.257</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>47738.11692</v>
@@ -2918,7 +3074,7 @@
         <v>75882.52339</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>66567.02847</v>
+        <v>75108.45568</v>
       </c>
       <c r="J55" s="47" t="n">
         <v>81025.52928</v>
@@ -2927,16 +3083,21 @@
         <v>159120.192</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>349048.16003</v>
+        <v>348698.89285</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>352188.0922000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>351849.90403</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>737572.334</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>8991.577449999999</v>
@@ -2957,7 +3118,7 @@
         <v>15491.55517</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>10227.03148</v>
+        <v>11868.22375</v>
       </c>
       <c r="J56" s="47" t="n">
         <v>14309.95848</v>
@@ -2966,16 +3127,21 @@
         <v>25616.88937</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>70277.88157</v>
+        <v>70291.99437999999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>70504.87546000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>70511.96409000001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>137040.094</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>38746.53947</v>
@@ -2984,19 +3150,19 @@
         <v>26057.39688</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>57508.40126999999</v>
+        <v>57508.40127</v>
       </c>
       <c r="F57" s="47" t="n">
         <v>77689.97175999999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>54227.61963</v>
+        <v>54227.61962999999</v>
       </c>
       <c r="H57" s="47" t="n">
         <v>60390.96822</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>56339.99699</v>
+        <v>63240.23193</v>
       </c>
       <c r="J57" s="47" t="n">
         <v>66715.5708</v>
@@ -3005,13 +3171,16 @@
         <v>133503.30263</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>278770.2784600001</v>
+        <v>278406.89847</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>281683.21674</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>281337.93994</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>600532.24</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>49</v>
@@ -3050,7 +3222,7 @@
         <v>100</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J59" s="35" t="n">
         <v>118</v>
@@ -3059,13 +3231,16 @@
         <v>127</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>137</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>